--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H2">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N2">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q2">
-        <v>70.92688483529922</v>
+        <v>79.02575060685822</v>
       </c>
       <c r="R2">
-        <v>70.92688483529922</v>
+        <v>711.231755461724</v>
       </c>
       <c r="S2">
-        <v>0.582472450250714</v>
+        <v>0.5869068866533775</v>
       </c>
       <c r="T2">
-        <v>0.582472450250714</v>
+        <v>0.5869068866533775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H3">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.45014124967763</v>
+        <v>0.461258</v>
       </c>
       <c r="N3">
-        <v>0.45014124967763</v>
+        <v>1.383774</v>
       </c>
       <c r="O3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="P3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="Q3">
-        <v>22.95701851956909</v>
+        <v>24.26962365301134</v>
       </c>
       <c r="R3">
-        <v>22.95701851956909</v>
+        <v>218.426612877102</v>
       </c>
       <c r="S3">
-        <v>0.188529791750976</v>
+        <v>0.1802451624825427</v>
       </c>
       <c r="T3">
-        <v>0.188529791750976</v>
+        <v>0.1802451624825427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H4">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I4">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J4">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N4">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q4">
-        <v>13.01357222580041</v>
+        <v>14.11203089123644</v>
       </c>
       <c r="R4">
-        <v>13.01357222580041</v>
+        <v>127.008278021128</v>
       </c>
       <c r="S4">
-        <v>0.1068712846825063</v>
+        <v>0.1048069528113167</v>
       </c>
       <c r="T4">
-        <v>0.1068712846825063</v>
+        <v>0.1048069528113167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.35733791953756</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H5">
-        <v>9.35733791953756</v>
+        <v>28.187806</v>
       </c>
       <c r="I5">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J5">
-        <v>0.1414624847241214</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.45014124967763</v>
+        <v>0.461258</v>
       </c>
       <c r="N5">
-        <v>0.45014124967763</v>
+        <v>1.383774</v>
       </c>
       <c r="O5">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="P5">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="Q5">
-        <v>4.212123784756511</v>
+        <v>4.333950339982666</v>
       </c>
       <c r="R5">
-        <v>4.212123784756511</v>
+        <v>39.005553059844</v>
       </c>
       <c r="S5">
-        <v>0.03459120004161516</v>
+        <v>0.03218729694329314</v>
       </c>
       <c r="T5">
-        <v>0.03459120004161516</v>
+        <v>0.03218729694329314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.79020744265196</v>
+        <v>0.08161033333333334</v>
       </c>
       <c r="H6">
-        <v>5.79020744265196</v>
+        <v>0.244831</v>
       </c>
       <c r="I6">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="J6">
-        <v>0.08753527327418853</v>
+        <v>0.001189891797952309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N6">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O6">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P6">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q6">
-        <v>8.052640976018338</v>
+        <v>0.1225729535364444</v>
       </c>
       <c r="R6">
-        <v>8.052640976018338</v>
+        <v>1.103156581828</v>
       </c>
       <c r="S6">
-        <v>0.06613065738305683</v>
+        <v>0.0009103223948592336</v>
       </c>
       <c r="T6">
-        <v>0.06613065738305683</v>
+        <v>0.0009103223948592336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.244831</v>
+      </c>
+      <c r="I7">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J7">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.461258</v>
+      </c>
+      <c r="N7">
+        <v>1.383774</v>
+      </c>
+      <c r="O7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q7">
+        <v>0.03764341913266667</v>
+      </c>
+      <c r="R7">
+        <v>0.3387907721940001</v>
+      </c>
+      <c r="S7">
+        <v>0.0002795694030930752</v>
+      </c>
+      <c r="T7">
+        <v>0.0002795694030930752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="H7">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="I7">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="J7">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="N7">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="O7">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="P7">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="Q7">
-        <v>2.606411214128067</v>
-      </c>
-      <c r="R7">
-        <v>2.606411214128067</v>
-      </c>
-      <c r="S7">
-        <v>0.0214046158911317</v>
-      </c>
-      <c r="T7">
-        <v>0.0214046158911317</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.492645</v>
+      </c>
+      <c r="H8">
+        <v>19.477935</v>
+      </c>
+      <c r="I8">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J8">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.501929333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.505788</v>
+      </c>
+      <c r="O8">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="P8">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="Q8">
+        <v>9.751493976420001</v>
+      </c>
+      <c r="R8">
+        <v>87.76344578778001</v>
+      </c>
+      <c r="S8">
+        <v>0.07242220321818922</v>
+      </c>
+      <c r="T8">
+        <v>0.07242220321818922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.492645</v>
+      </c>
+      <c r="H9">
+        <v>19.477935</v>
+      </c>
+      <c r="I9">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J9">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.461258</v>
+      </c>
+      <c r="N9">
+        <v>1.383774</v>
+      </c>
+      <c r="O9">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P9">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q9">
+        <v>2.99478444741</v>
+      </c>
+      <c r="R9">
+        <v>26.95306002669</v>
+      </c>
+      <c r="S9">
+        <v>0.02224160609332853</v>
+      </c>
+      <c r="T9">
+        <v>0.02224160609332853</v>
       </c>
     </row>
   </sheetData>
